--- a/Tests/TestSamples/named-graph.xlsx
+++ b/Tests/TestSamples/named-graph.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="3750" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Graph1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hello</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>world</t>
+  </si>
+  <si>
+    <t>Third Node</t>
+  </si>
+  <si>
+    <t>Fourth Node</t>
   </si>
 </sst>
 </file>
@@ -165,23 +171,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -217,23 +206,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -386,15 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +376,14 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -413,6 +391,46 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -429,9 +447,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -442,7 +460,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -453,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
